--- a/property/Montly-In-out-flows.xlsx
+++ b/property/Montly-In-out-flows.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\business\property\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\Personal\business\property\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECA291C-CD0A-4FB7-A7E4-CDB4434D57D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6395CC6F-C23B-424C-BACE-FB67A140C5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAF54CD4-AF15-40BB-8486-18DE73215734}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AAF54CD4-AF15-40BB-8486-18DE73215734}"/>
   </bookViews>
   <sheets>
     <sheet name="One Of Capital Cost" sheetId="1" r:id="rId1"/>
     <sheet name="Strategy" sheetId="3" r:id="rId2"/>
     <sheet name="Montly" sheetId="2" r:id="rId3"/>
-    <sheet name="Yearly" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -556,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E30230-B291-4147-BAFA-10C9E068EC87}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,7 +923,7 @@
   <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D6"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,21 +973,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21976CA0-98D1-4F21-BB1A-3DB274EECFB8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="72.28515625" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>